--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.573242000000002</v>
+        <v>3.793046666666667</v>
       </c>
       <c r="H2">
-        <v>28.719726</v>
+        <v>11.37914</v>
       </c>
       <c r="I2">
-        <v>0.4430823304038761</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="J2">
-        <v>0.443082330403876</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N2">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O2">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P2">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q2">
-        <v>138.273748681929</v>
+        <v>170.3740560655533</v>
       </c>
       <c r="R2">
-        <v>829.6424920915741</v>
+        <v>1022.24433639332</v>
       </c>
       <c r="S2">
-        <v>0.04483036655195388</v>
+        <v>0.03203193733999894</v>
       </c>
       <c r="T2">
-        <v>0.03149641411054152</v>
+        <v>0.02302538600076182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.573242000000002</v>
+        <v>3.793046666666667</v>
       </c>
       <c r="H3">
-        <v>28.719726</v>
+        <v>11.37914</v>
       </c>
       <c r="I3">
-        <v>0.4430823304038761</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="J3">
-        <v>0.443082330403876</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P3">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q3">
-        <v>64.35864029872668</v>
+        <v>25.49975505228889</v>
       </c>
       <c r="R3">
-        <v>579.2277626885401</v>
+        <v>229.4977954706</v>
       </c>
       <c r="S3">
-        <v>0.02086601009143203</v>
+        <v>0.004794195635666287</v>
       </c>
       <c r="T3">
-        <v>0.021989709606083</v>
+        <v>0.005169287947026853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.573242000000002</v>
+        <v>3.793046666666667</v>
       </c>
       <c r="H4">
-        <v>28.719726</v>
+        <v>11.37914</v>
       </c>
       <c r="I4">
-        <v>0.4430823304038761</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="J4">
-        <v>0.443082330403876</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N4">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O4">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P4">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q4">
-        <v>443.6065375847048</v>
+        <v>267.1321288692089</v>
       </c>
       <c r="R4">
-        <v>3992.458838262343</v>
+        <v>2404.18915982288</v>
       </c>
       <c r="S4">
-        <v>0.1438237111117279</v>
+        <v>0.05022337209690373</v>
       </c>
       <c r="T4">
-        <v>0.1515690650947547</v>
+        <v>0.05415279053448303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.573242000000002</v>
+        <v>3.793046666666667</v>
       </c>
       <c r="H5">
-        <v>28.719726</v>
+        <v>11.37914</v>
       </c>
       <c r="I5">
-        <v>0.4430823304038761</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="J5">
-        <v>0.443082330403876</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N5">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O5">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P5">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q5">
-        <v>71.23580525615401</v>
+        <v>33.08261923856</v>
       </c>
       <c r="R5">
-        <v>427.4148315369241</v>
+        <v>198.49571543136</v>
       </c>
       <c r="S5">
-        <v>0.02309568729927945</v>
+        <v>0.006219845972821506</v>
       </c>
       <c r="T5">
-        <v>0.01622630790900762</v>
+        <v>0.004470986343079048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.573242000000002</v>
+        <v>3.793046666666667</v>
       </c>
       <c r="H6">
-        <v>28.719726</v>
+        <v>11.37914</v>
       </c>
       <c r="I6">
-        <v>0.4430823304038761</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="J6">
-        <v>0.443082330403876</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N6">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O6">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P6">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q6">
-        <v>127.891974595714</v>
+        <v>327.8102891426289</v>
       </c>
       <c r="R6">
-        <v>1151.027771361426</v>
+        <v>2950.29260228366</v>
       </c>
       <c r="S6">
-        <v>0.04146444393698814</v>
+        <v>0.06163144133390519</v>
       </c>
       <c r="T6">
-        <v>0.04369743315357048</v>
+        <v>0.06645341388972575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.573242000000002</v>
+        <v>3.793046666666667</v>
       </c>
       <c r="H7">
-        <v>28.719726</v>
+        <v>11.37914</v>
       </c>
       <c r="I7">
-        <v>0.4430823304038761</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="J7">
-        <v>0.443082330403876</v>
+        <v>0.175720728331298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N7">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O7">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P7">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q7">
-        <v>521.2662147895861</v>
+        <v>110.7387573070156</v>
       </c>
       <c r="R7">
-        <v>4691.395933106275</v>
+        <v>996.6488157631401</v>
       </c>
       <c r="S7">
-        <v>0.1690021114124948</v>
+        <v>0.02081993595200232</v>
       </c>
       <c r="T7">
-        <v>0.1781034005299187</v>
+        <v>0.02244886361622146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05236666666666667</v>
+        <v>4.537309333333334</v>
       </c>
       <c r="H8">
-        <v>0.1571</v>
+        <v>13.611928</v>
       </c>
       <c r="I8">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="J8">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N8">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O8">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P8">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q8">
-        <v>0.7563723246499999</v>
+        <v>203.8044513234107</v>
       </c>
       <c r="R8">
-        <v>4.538233947899999</v>
+        <v>1222.826707940464</v>
       </c>
       <c r="S8">
-        <v>0.0002452269421133041</v>
+        <v>0.03831716850065797</v>
       </c>
       <c r="T8">
-        <v>0.0001722887835617259</v>
+        <v>0.02754337290995434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05236666666666667</v>
+        <v>4.537309333333334</v>
       </c>
       <c r="H9">
-        <v>0.1571</v>
+        <v>13.611928</v>
       </c>
       <c r="I9">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="J9">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P9">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q9">
-        <v>0.3520487065555555</v>
+        <v>30.50325681812445</v>
       </c>
       <c r="R9">
-        <v>3.168438359</v>
+        <v>274.52931136312</v>
       </c>
       <c r="S9">
-        <v>0.0001141393265856357</v>
+        <v>0.005734901390667813</v>
       </c>
       <c r="T9">
-        <v>0.0001202860841748852</v>
+        <v>0.006183593430276571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05236666666666667</v>
+        <v>4.537309333333334</v>
       </c>
       <c r="H10">
-        <v>0.1571</v>
+        <v>13.611928</v>
       </c>
       <c r="I10">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="J10">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N10">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O10">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P10">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q10">
-        <v>2.426575624522223</v>
+        <v>319.5481648573085</v>
       </c>
       <c r="R10">
-        <v>21.8391806207</v>
+        <v>2875.933483715776</v>
       </c>
       <c r="S10">
-        <v>0.0007867312179667885</v>
+        <v>0.06007808366012393</v>
       </c>
       <c r="T10">
-        <v>0.0008290991399564867</v>
+        <v>0.06477852331146858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05236666666666667</v>
+        <v>4.537309333333334</v>
       </c>
       <c r="H11">
-        <v>0.1571</v>
+        <v>13.611928</v>
       </c>
       <c r="I11">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="J11">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N11">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O11">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P11">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q11">
-        <v>0.3896675408999999</v>
+        <v>39.574012722112</v>
       </c>
       <c r="R11">
-        <v>2.3380052454</v>
+        <v>237.444076332672</v>
       </c>
       <c r="S11">
-        <v>0.0001263359014886424</v>
+        <v>0.007440289472942271</v>
       </c>
       <c r="T11">
-        <v>8.875965503657997E-05</v>
+        <v>0.005348272733350263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05236666666666667</v>
+        <v>4.537309333333334</v>
       </c>
       <c r="H12">
-        <v>0.1571</v>
+        <v>13.611928</v>
       </c>
       <c r="I12">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="J12">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N12">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O12">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P12">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q12">
-        <v>0.6995829002333332</v>
+        <v>392.1324505602925</v>
       </c>
       <c r="R12">
-        <v>6.2962461021</v>
+        <v>3529.192055042632</v>
       </c>
       <c r="S12">
-        <v>0.0002268149822355838</v>
+        <v>0.07372461732374692</v>
       </c>
       <c r="T12">
-        <v>0.0002390296741837273</v>
+        <v>0.07949274595629785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05236666666666667</v>
+        <v>4.537309333333334</v>
       </c>
       <c r="H13">
-        <v>0.1571</v>
+        <v>13.611928</v>
       </c>
       <c r="I13">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="J13">
-        <v>0.002423708154682566</v>
+        <v>0.2102002350048587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N13">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O13">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P13">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q13">
-        <v>2.8513824381</v>
+        <v>132.4676549609698</v>
       </c>
       <c r="R13">
-        <v>25.6624419429</v>
+        <v>1192.208894648728</v>
       </c>
       <c r="S13">
-        <v>0.0009244597842926121</v>
+        <v>0.02490517465671985</v>
       </c>
       <c r="T13">
-        <v>0.0009742448177691609</v>
+        <v>0.02685372666351114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.980403</v>
+        <v>13.255297</v>
       </c>
       <c r="H14">
-        <v>35.941209</v>
+        <v>39.765891</v>
       </c>
       <c r="I14">
-        <v>0.5544939614414415</v>
+        <v>0.6140790366638432</v>
       </c>
       <c r="J14">
-        <v>0.5544939614414414</v>
+        <v>0.6140790366638433</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N14">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O14">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P14">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q14">
-        <v>173.0422393511235</v>
+        <v>595.3943920832929</v>
       </c>
       <c r="R14">
-        <v>1038.253436106741</v>
+        <v>3572.366352499757</v>
       </c>
       <c r="S14">
-        <v>0.05610281845273815</v>
+        <v>0.1119397888400378</v>
       </c>
       <c r="T14">
-        <v>0.03941608643123969</v>
+        <v>0.08046521880732818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.980403</v>
+        <v>13.255297</v>
       </c>
       <c r="H15">
-        <v>35.941209</v>
+        <v>39.765891</v>
       </c>
       <c r="I15">
-        <v>0.5544939614414415</v>
+        <v>0.6140790366638432</v>
       </c>
       <c r="J15">
-        <v>0.5544939614414414</v>
+        <v>0.6140790366638433</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.16829</v>
       </c>
       <c r="O15">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P15">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q15">
-        <v>80.54141400695667</v>
+        <v>89.11222464404332</v>
       </c>
       <c r="R15">
-        <v>724.87272606261</v>
+        <v>802.0100217963899</v>
       </c>
       <c r="S15">
-        <v>0.02611270141268993</v>
+        <v>0.01675394283580141</v>
       </c>
       <c r="T15">
-        <v>0.02751895156665272</v>
+        <v>0.01806475190999351</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.980403</v>
+        <v>13.255297</v>
       </c>
       <c r="H16">
-        <v>35.941209</v>
+        <v>39.765891</v>
       </c>
       <c r="I16">
-        <v>0.5544939614414415</v>
+        <v>0.6140790366638432</v>
       </c>
       <c r="J16">
-        <v>0.5544939614414414</v>
+        <v>0.6140790366638433</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N16">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O16">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P16">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q16">
-        <v>555.1499788367838</v>
+        <v>933.5281154121413</v>
       </c>
       <c r="R16">
-        <v>4996.349809531053</v>
+        <v>8401.753038709272</v>
       </c>
       <c r="S16">
-        <v>0.1799877220354482</v>
+        <v>0.1755121336461204</v>
       </c>
       <c r="T16">
-        <v>0.1896806204385509</v>
+        <v>0.1892439996115773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.980403</v>
+        <v>13.255297</v>
       </c>
       <c r="H17">
-        <v>35.941209</v>
+        <v>39.765891</v>
       </c>
       <c r="I17">
-        <v>0.5544939614414415</v>
+        <v>0.6140790366638432</v>
       </c>
       <c r="J17">
-        <v>0.5544939614414414</v>
+        <v>0.6140790366638433</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N17">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O17">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P17">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q17">
-        <v>89.14782003821099</v>
+        <v>115.611533967864</v>
       </c>
       <c r="R17">
-        <v>534.886920229266</v>
+        <v>693.6692038071839</v>
       </c>
       <c r="S17">
-        <v>0.02890302380398923</v>
+        <v>0.02173606414825803</v>
       </c>
       <c r="T17">
-        <v>0.02030636099578373</v>
+        <v>0.01562444574733855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.980403</v>
+        <v>13.255297</v>
       </c>
       <c r="H18">
-        <v>35.941209</v>
+        <v>39.765891</v>
       </c>
       <c r="I18">
-        <v>0.5544939614414415</v>
+        <v>0.6140790366638432</v>
       </c>
       <c r="J18">
-        <v>0.5544939614414414</v>
+        <v>0.6140790366638433</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N18">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O18">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P18">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q18">
-        <v>160.050001464751</v>
+        <v>1145.575871878214</v>
       </c>
       <c r="R18">
-        <v>1440.450013182759</v>
+        <v>10310.18284690393</v>
       </c>
       <c r="S18">
-        <v>0.05189054539058184</v>
+        <v>0.2153791216433727</v>
       </c>
       <c r="T18">
-        <v>0.05468501258459101</v>
+        <v>0.2322301345546957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.980403</v>
+        <v>13.255297</v>
       </c>
       <c r="H19">
-        <v>35.941209</v>
+        <v>39.765891</v>
       </c>
       <c r="I19">
-        <v>0.5544939614414415</v>
+        <v>0.6140790366638432</v>
       </c>
       <c r="J19">
-        <v>0.5544939614414414</v>
+        <v>0.6140790366638433</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N19">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O19">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P19">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q19">
-        <v>652.336932824199</v>
+        <v>386.9910513928323</v>
       </c>
       <c r="R19">
-        <v>5871.032395417791</v>
+        <v>3482.919462535491</v>
       </c>
       <c r="S19">
-        <v>0.2114971503459942</v>
+        <v>0.07275798555025295</v>
       </c>
       <c r="T19">
-        <v>0.2228869294246233</v>
+        <v>0.07845048603291008</v>
       </c>
     </row>
   </sheetData>
